--- a/tests/5_predictions_PRIX_EXP_POMME_GRANNY_FRANCE_150_180G_CAT_I_PLATEAU_2RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GRANNY_FRANCE_150_180G_CAT_I_PLATEAU_2RG.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,339 +467,229 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>45656</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.129999995231628</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.129999995231628</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.129999995231628</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+        <v>45600</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.230000019073486</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.179999947547913</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.159999966621399</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.159999966621399</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+        <v>45607</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.179999947547913</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.159999966621399</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.159999966621399</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.120000004768372</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+        <v>45614</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.159999966621399</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.159999966621399</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.120000004768372</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.120000004768372</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+        <v>45621</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.159999966621399</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.120000004768372</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.120000004768372</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.129999995231628</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+        <v>45628</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.120000004768372</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.120000004768372</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.129999995231628</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.100000023841858</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+        <v>45635</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.120000004768372</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.129999995231628</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.100000023841858</v>
+      </c>
       <c r="E8" t="n">
-        <v>1.190000057220459</v>
+        <v>1.080000042915344</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+        <v>45642</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.129999995231628</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.100000023841858</v>
+      </c>
       <c r="D9" t="n">
-        <v>1.190000057220459</v>
+        <v>1.080000042915344</v>
       </c>
       <c r="E9" t="n">
-        <v>1.230000019073486</v>
+        <v>1.100000023841858</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
+        <v>45649</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.100000023841858</v>
+      </c>
       <c r="C10" t="n">
-        <v>1.190000057220459</v>
+        <v>1.080000042915344</v>
       </c>
       <c r="D10" t="n">
-        <v>1.230000019073486</v>
+        <v>1.100000023841858</v>
       </c>
       <c r="E10" t="n">
-        <v>1.230000019073486</v>
+        <v>1.049999952316284</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45663</v>
       </c>
       <c r="B11" t="n">
-        <v>1.190000057220459</v>
+        <v>1.080000042915344</v>
       </c>
       <c r="C11" t="n">
-        <v>1.230000019073486</v>
+        <v>1.100000023841858</v>
       </c>
       <c r="D11" t="n">
-        <v>1.230000019073486</v>
+        <v>1.049999952316284</v>
       </c>
       <c r="E11" t="n">
-        <v>1.230000019073486</v>
+        <v>1.019999980926514</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45670</v>
       </c>
       <c r="B12" t="n">
-        <v>1.230000019073486</v>
+        <v>1.100000023841858</v>
       </c>
       <c r="C12" t="n">
-        <v>1.230000019073486</v>
+        <v>1.049999952316284</v>
       </c>
       <c r="D12" t="n">
-        <v>1.230000019073486</v>
+        <v>1.019999980926514</v>
       </c>
       <c r="E12" t="n">
-        <v>1.230000019073486</v>
+        <v>0.9300000071525574</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45677</v>
       </c>
       <c r="B13" t="n">
-        <v>1.230000019073486</v>
+        <v>1.049999952316284</v>
       </c>
       <c r="C13" t="n">
-        <v>1.230000019073486</v>
+        <v>1.019999980926514</v>
       </c>
       <c r="D13" t="n">
-        <v>1.230000019073486</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.179999947547913</v>
-      </c>
+        <v>0.9300000071525574</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45684</v>
       </c>
       <c r="B14" t="n">
-        <v>1.230000019073486</v>
+        <v>1.019999980926514</v>
       </c>
       <c r="C14" t="n">
-        <v>1.230000019073486</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.179999947547913</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.159999966621399</v>
-      </c>
+        <v>0.9300000071525574</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45691</v>
       </c>
       <c r="B15" t="n">
-        <v>1.230000019073486</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.179999947547913</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.159999966621399</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.159999966621399</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1.179999947547913</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.159999966621399</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.159999966621399</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.120000004768372</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1.159999966621399</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.159999966621399</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.120000004768372</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.120000004768372</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1.159999966621399</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.120000004768372</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.120000004768372</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.129999995231628</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1.120000004768372</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.120000004768372</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.129999995231628</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.100000023841858</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1.120000004768372</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.129999995231628</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.100000023841858</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1.080000042915344</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1.129999995231628</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.100000023841858</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.080000042915344</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1.100000023841858</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.100000023841858</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.080000042915344</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.100000023841858</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.049999952316284</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1.080000042915344</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.100000023841858</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.049999952316284</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45670</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1.100000023841858</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.049999952316284</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45677</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1.049999952316284</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+        <v>0.9300000071525574</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -812,7 +702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -844,338 +734,198 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
+        <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.144999027252197</v>
+        <v>1.151658535003662</v>
       </c>
       <c r="C2" t="n">
-        <v>1.109537839889526</v>
+        <v>1.15066933631897</v>
       </c>
       <c r="D2" t="n">
-        <v>1.073270201683044</v>
+        <v>1.078540802001953</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
+        <v>45600</v>
       </c>
       <c r="B3" t="n">
-        <v>1.148634910583496</v>
+        <v>1.194576501846313</v>
       </c>
       <c r="C3" t="n">
-        <v>1.104662895202637</v>
+        <v>1.172620177268982</v>
       </c>
       <c r="D3" t="n">
-        <v>1.076902270317078</v>
+        <v>1.147108554840088</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
+        <v>45607</v>
       </c>
       <c r="B4" t="n">
-        <v>1.147996187210083</v>
+        <v>1.164240717887878</v>
       </c>
       <c r="C4" t="n">
-        <v>1.102931261062622</v>
+        <v>1.164478063583374</v>
       </c>
       <c r="D4" t="n">
-        <v>1.079889178276062</v>
+        <v>1.066512584686279</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
+        <v>45614</v>
       </c>
       <c r="B5" t="n">
-        <v>1.146634578704834</v>
+        <v>1.157828569412231</v>
       </c>
       <c r="C5" t="n">
-        <v>1.113725900650024</v>
+        <v>1.153793334960938</v>
       </c>
       <c r="D5" t="n">
-        <v>1.079313993453979</v>
+        <v>1.070824027061462</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
+        <v>45621</v>
       </c>
       <c r="B6" t="n">
-        <v>1.152775764465332</v>
+        <v>1.155282497406006</v>
       </c>
       <c r="C6" t="n">
-        <v>1.127863526344299</v>
+        <v>1.152972817420959</v>
       </c>
       <c r="D6" t="n">
-        <v>1.090560913085938</v>
+        <v>1.069417476654053</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
+        <v>45628</v>
       </c>
       <c r="B7" t="n">
-        <v>1.147021532058716</v>
+        <v>1.13532817363739</v>
       </c>
       <c r="C7" t="n">
-        <v>1.121306777000427</v>
+        <v>1.141794919967651</v>
       </c>
       <c r="D7" t="n">
-        <v>1.094270944595337</v>
+        <v>1.048765301704407</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
+        <v>45635</v>
       </c>
       <c r="B8" t="n">
-        <v>1.145129919052124</v>
+        <v>1.138307094573975</v>
       </c>
       <c r="C8" t="n">
-        <v>1.124075055122375</v>
+        <v>1.134122252464294</v>
       </c>
       <c r="D8" t="n">
-        <v>1.091346621513367</v>
+        <v>1.054309010505676</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
+        <v>45642</v>
       </c>
       <c r="B9" t="n">
-        <v>1.151944160461426</v>
+        <v>1.148852825164795</v>
       </c>
       <c r="C9" t="n">
-        <v>1.123517632484436</v>
+        <v>1.13858425617218</v>
       </c>
       <c r="D9" t="n">
-        <v>1.094176650047302</v>
+        <v>1.060805320739746</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
+        <v>45649</v>
       </c>
       <c r="B10" t="n">
-        <v>1.153468728065491</v>
+        <v>1.144024252891541</v>
       </c>
       <c r="C10" t="n">
-        <v>1.122926950454712</v>
+        <v>1.145249605178833</v>
       </c>
       <c r="D10" t="n">
-        <v>1.094152808189392</v>
+        <v>1.07375967502594</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45663</v>
       </c>
       <c r="B11" t="n">
-        <v>1.11978805065155</v>
+        <v>1.151606321334839</v>
       </c>
       <c r="C11" t="n">
-        <v>1.126559853553772</v>
+        <v>1.150070667266846</v>
       </c>
       <c r="D11" t="n">
-        <v>1.08966863155365</v>
+        <v>1.078387141227722</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45670</v>
       </c>
       <c r="B12" t="n">
-        <v>1.114229559898376</v>
+        <v>1.131971597671509</v>
       </c>
       <c r="C12" t="n">
-        <v>1.11076033115387</v>
+        <v>1.122918605804443</v>
       </c>
       <c r="D12" t="n">
-        <v>1.089779376983643</v>
+        <v>1.067657947540283</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45677</v>
       </c>
       <c r="B13" t="n">
-        <v>1.139787554740906</v>
+        <v>1.138642311096191</v>
       </c>
       <c r="C13" t="n">
-        <v>1.098260402679443</v>
+        <v>1.12611997127533</v>
       </c>
       <c r="D13" t="n">
-        <v>1.141145467758179</v>
+        <v>1.06916356086731</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45684</v>
       </c>
       <c r="B14" t="n">
-        <v>1.139481067657471</v>
+        <v>1.140430569648743</v>
       </c>
       <c r="C14" t="n">
-        <v>1.104676485061646</v>
+        <v>1.136870622634888</v>
       </c>
       <c r="D14" t="n">
-        <v>1.14089834690094</v>
+        <v>1.062175989151001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45691</v>
       </c>
       <c r="B15" t="n">
-        <v>1.141145706176758</v>
+        <v>1.079273819923401</v>
       </c>
       <c r="C15" t="n">
-        <v>1.100576519966125</v>
+        <v>1.135772109031677</v>
       </c>
       <c r="D15" t="n">
-        <v>1.140669941902161</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1.147429943084717</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.106109857559204</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.128544807434082</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1.149390935897827</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.106575608253479</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.136016726493835</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1.148609161376953</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.10606050491333</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.136312007904053</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1.137071967124939</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.105329513549805</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.119138836860657</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1.140270709991455</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.10904860496521</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.124590873718262</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1.142920970916748</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.123132824897766</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.126625776290894</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.123603105545044</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.128514647483826</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.126221895217896</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1.096996188163757</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.084766149520874</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.130165100097656</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45670</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1.145677924156189</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.106978893280029</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1.120385766029358</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45677</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1.115597486495972</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.078245639801025</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.120385766029358</v>
+        <v>1.039744734764099</v>
       </c>
     </row>
   </sheetData>

--- a/tests/5_predictions_PRIX_EXP_POMME_GRANNY_FRANCE_150_180G_CAT_I_PLATEAU_2RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GRANNY_FRANCE_150_180G_CAT_I_PLATEAU_2RG.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,212 +484,373 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.230000019073486</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.179999947547913</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.159999966621399</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.159999966621399</v>
-      </c>
+        <v>45509</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.179999947547913</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.159999966621399</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.159999966621399</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.120000004768372</v>
-      </c>
+        <v>45516</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.159999966621399</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.159999966621399</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.120000004768372</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.120000004768372</v>
-      </c>
+        <v>45523</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.159999966621399</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.120000004768372</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.120000004768372</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.129999995231628</v>
-      </c>
+        <v>45530</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.120000004768372</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.120000004768372</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.129999995231628</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.100000023841858</v>
-      </c>
+        <v>45537</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.120000004768372</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.129999995231628</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.100000023841858</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.080000042915344</v>
-      </c>
+        <v>45544</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.129999995231628</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.100000023841858</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.080000042915344</v>
-      </c>
+        <v>45551</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>1.100000023841858</v>
+        <v>1.190000057220459</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.100000023841858</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.080000042915344</v>
-      </c>
+        <v>45558</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>1.100000023841858</v>
+        <v>1.190000057220459</v>
       </c>
       <c r="E10" t="n">
-        <v>1.049999952316284</v>
+        <v>1.230000019073486</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1.080000042915344</v>
-      </c>
+        <v>45565</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1.100000023841858</v>
+        <v>1.190000057220459</v>
       </c>
       <c r="D11" t="n">
-        <v>1.049999952316284</v>
+        <v>1.230000019073486</v>
       </c>
       <c r="E11" t="n">
-        <v>1.019999980926514</v>
+        <v>1.230000019073486</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45670</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.100000023841858</v>
+        <v>1.190000057220459</v>
       </c>
       <c r="C12" t="n">
-        <v>1.049999952316284</v>
+        <v>1.230000019073486</v>
       </c>
       <c r="D12" t="n">
-        <v>1.019999980926514</v>
+        <v>1.230000019073486</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9300000071525574</v>
+        <v>1.230000019073486</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45677</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.049999952316284</v>
+        <v>1.230000019073486</v>
       </c>
       <c r="C13" t="n">
-        <v>1.019999980926514</v>
+        <v>1.230000019073486</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9300000071525574</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
+        <v>1.230000019073486</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.230000019073486</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45684</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.019999980926514</v>
+        <v>1.230000019073486</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9300000071525574</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+        <v>1.230000019073486</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.230000019073486</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.179999947547913</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.230000019073486</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.230000019073486</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.179999947547913</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.159999966621399</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.230000019073486</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.179999947547913</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.159999966621399</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.159999966621399</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.179999947547913</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.159999966621399</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.159999966621399</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.120000004768372</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.159999966621399</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.159999966621399</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.120000004768372</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.120000004768372</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.159999966621399</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.120000004768372</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.120000004768372</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.129999995231628</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.120000004768372</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.120000004768372</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.129999995231628</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.100000023841858</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.120000004768372</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.129999995231628</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.080000042915344</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.129999995231628</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.080000042915344</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.100000023841858</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.080000042915344</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.049999952316284</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.080000042915344</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.049999952316284</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.019999980926514</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.049999952316284</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.019999980926514</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9300000071525574</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.049999952316284</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.019999980926514</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9300000071525574</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.019999980926514</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9300000071525574</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>45691</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B28" t="n">
         <v>0.9300000071525574</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -702,7 +863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,195 +898,377 @@
         <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.151658535003662</v>
+        <v>1.118009209632874</v>
       </c>
       <c r="C2" t="n">
-        <v>1.15066933631897</v>
+        <v>1.08854603767395</v>
       </c>
       <c r="D2" t="n">
-        <v>1.078540802001953</v>
+        <v>1.122645854949951</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45600</v>
+        <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.194576501846313</v>
+        <v>1.130596160888672</v>
       </c>
       <c r="C3" t="n">
-        <v>1.172620177268982</v>
+        <v>1.124616742134094</v>
       </c>
       <c r="D3" t="n">
-        <v>1.147108554840088</v>
+        <v>1.186512589454651</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45607</v>
+        <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.164240717887878</v>
+        <v>1.127407789230347</v>
       </c>
       <c r="C4" t="n">
-        <v>1.164478063583374</v>
+        <v>1.139602065086365</v>
       </c>
       <c r="D4" t="n">
-        <v>1.066512584686279</v>
+        <v>1.182896018028259</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45614</v>
+        <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.157828569412231</v>
+        <v>1.110214233398438</v>
       </c>
       <c r="C5" t="n">
-        <v>1.153793334960938</v>
+        <v>1.119963526725769</v>
       </c>
       <c r="D5" t="n">
-        <v>1.070824027061462</v>
+        <v>1.183227300643921</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45621</v>
+        <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>1.155282497406006</v>
+        <v>1.110214233398438</v>
       </c>
       <c r="C6" t="n">
-        <v>1.152972817420959</v>
+        <v>1.119963526725769</v>
       </c>
       <c r="D6" t="n">
-        <v>1.069417476654053</v>
+        <v>1.185673594474792</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45628</v>
+        <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.13532817363739</v>
+        <v>1.115875005722046</v>
       </c>
       <c r="C7" t="n">
-        <v>1.141794919967651</v>
+        <v>1.1208575963974</v>
       </c>
       <c r="D7" t="n">
-        <v>1.048765301704407</v>
+        <v>1.188791275024414</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45635</v>
+        <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.138307094573975</v>
+        <v>1.115875005722046</v>
       </c>
       <c r="C8" t="n">
-        <v>1.134122252464294</v>
+        <v>1.121185660362244</v>
       </c>
       <c r="D8" t="n">
-        <v>1.054309010505676</v>
+        <v>1.186661005020142</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45642</v>
+        <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.148852825164795</v>
+        <v>1.115303039550781</v>
       </c>
       <c r="C9" t="n">
-        <v>1.13858425617218</v>
+        <v>1.121185660362244</v>
       </c>
       <c r="D9" t="n">
-        <v>1.060805320739746</v>
+        <v>1.186661005020142</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45649</v>
+        <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.144024252891541</v>
+        <v>1.115303039550781</v>
       </c>
       <c r="C10" t="n">
-        <v>1.145249605178833</v>
+        <v>1.1208575963974</v>
       </c>
       <c r="D10" t="n">
-        <v>1.07375967502594</v>
+        <v>1.188703536987305</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45663</v>
+        <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.151606321334839</v>
+        <v>1.113066911697388</v>
       </c>
       <c r="C11" t="n">
-        <v>1.150070667266846</v>
+        <v>1.123345732688904</v>
       </c>
       <c r="D11" t="n">
-        <v>1.078387141227722</v>
+        <v>1.091748118400574</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45670</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.131971597671509</v>
+        <v>1.104127883911133</v>
       </c>
       <c r="C12" t="n">
-        <v>1.122918605804443</v>
+        <v>1.118629813194275</v>
       </c>
       <c r="D12" t="n">
-        <v>1.067657947540283</v>
+        <v>1.07162606716156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45677</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.138642311096191</v>
+        <v>1.103780031204224</v>
       </c>
       <c r="C13" t="n">
-        <v>1.12611997127533</v>
+        <v>1.115753054618835</v>
       </c>
       <c r="D13" t="n">
-        <v>1.06916356086731</v>
+        <v>1.072025537490845</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45684</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.140430569648743</v>
+        <v>1.118717432022095</v>
       </c>
       <c r="C14" t="n">
-        <v>1.136870622634888</v>
+        <v>1.106619715690613</v>
       </c>
       <c r="D14" t="n">
-        <v>1.062175989151001</v>
+        <v>1.115355610847473</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.11701512336731</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.103658318519592</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.106140851974487</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.117251873016357</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.090304851531982</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.105539321899414</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.110800266265869</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.085518598556519</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.109883785247803</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.120527505874634</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.100306272506714</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.110405802726746</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.120741844177246</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.100306272506714</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.110405802726746</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.119401931762695</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.10650372505188</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.088807225227356</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.118757247924805</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.110587477684021</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.047306180000305</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.129971981048584</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.148481845855713</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.064865112304688</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.110188484191895</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.105829954147339</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.12029492855072</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.088965654373169</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.039615392684937</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.122203707695007</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.109328746795654</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.117823719978333</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.060938119888306</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.08125114440918</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.087821960449219</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.068745970726013</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.087246656417847</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.050657153129578</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.058998465538025</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>45691</v>
       </c>
-      <c r="B15" t="n">
-        <v>1.079273819923401</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.135772109031677</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.039744734764099</v>
+      <c r="B28" t="n">
+        <v>1.058662295341492</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.085346817970276</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.044188141822815</v>
       </c>
     </row>
   </sheetData>

--- a/tests/5_predictions_PRIX_EXP_POMME_GRANNY_FRANCE_150_180G_CAT_I_PLATEAU_2RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GRANNY_FRANCE_150_180G_CAT_I_PLATEAU_2RG.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GRANNY FRANCE 150/180G CAT.I PLATEAU 2RG_S+1</t>
+          <t>PRIX EXP POMME GRANNY FRANCE 150/180G CAT.I PLATEAU 2RG_S+1_class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GRANNY FRANCE 150/180G CAT.I PLATEAU 2RG_S+2</t>
+          <t>PRIX EXP POMME GRANNY FRANCE 150/180G CAT.I PLATEAU 2RG_S+2_class</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GRANNY FRANCE 150/180G CAT.I PLATEAU 2RG_S+3</t>
+          <t>PRIX EXP POMME GRANNY FRANCE 150/180G CAT.I PLATEAU 2RG_S+3_class</t>
         </is>
       </c>
     </row>
@@ -473,13 +473,13 @@
         <v>1.100000023841858</v>
       </c>
       <c r="C2" t="n">
-        <v>1.129999995231628</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1.129999995231628</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1.129999995231628</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -487,64 +487,104 @@
         <v>45509</v>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>45516</v>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>45523</v>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>45530</v>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>45537</v>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>45544</v>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>45551</v>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
       <c r="E9" t="n">
-        <v>1.190000057220459</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -552,12 +592,14 @@
         <v>45558</v>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
       <c r="D10" t="n">
-        <v>1.190000057220459</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>1.230000019073486</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -566,13 +608,13 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1.190000057220459</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>1.230000019073486</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>1.230000019073486</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -583,13 +625,13 @@
         <v>1.190000057220459</v>
       </c>
       <c r="C12" t="n">
-        <v>1.230000019073486</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>1.230000019073486</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>1.230000019073486</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -600,13 +642,13 @@
         <v>1.230000019073486</v>
       </c>
       <c r="C13" t="n">
-        <v>1.230000019073486</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>1.230000019073486</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>1.230000019073486</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +659,13 @@
         <v>1.230000019073486</v>
       </c>
       <c r="C14" t="n">
-        <v>1.230000019073486</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>1.230000019073486</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1.179999947547913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -634,13 +676,13 @@
         <v>1.230000019073486</v>
       </c>
       <c r="C15" t="n">
-        <v>1.230000019073486</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1.179999947547913</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1.159999966621399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +693,13 @@
         <v>1.230000019073486</v>
       </c>
       <c r="C16" t="n">
-        <v>1.179999947547913</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.159999966621399</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1.159999966621399</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -668,13 +710,13 @@
         <v>1.179999947547913</v>
       </c>
       <c r="C17" t="n">
-        <v>1.159999966621399</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1.159999966621399</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>1.120000004768372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -685,13 +727,13 @@
         <v>1.159999966621399</v>
       </c>
       <c r="C18" t="n">
-        <v>1.159999966621399</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>1.120000004768372</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1.120000004768372</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -702,13 +744,13 @@
         <v>1.159999966621399</v>
       </c>
       <c r="C19" t="n">
-        <v>1.120000004768372</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.120000004768372</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>1.129999995231628</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -719,13 +761,13 @@
         <v>1.120000004768372</v>
       </c>
       <c r="C20" t="n">
-        <v>1.120000004768372</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>1.129999995231628</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>1.100000023841858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -736,13 +778,13 @@
         <v>1.120000004768372</v>
       </c>
       <c r="C21" t="n">
-        <v>1.129999995231628</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>1.100000023841858</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1.080000042915344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -753,13 +795,13 @@
         <v>1.129999995231628</v>
       </c>
       <c r="C22" t="n">
-        <v>1.100000023841858</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1.080000042915344</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1.100000023841858</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -770,13 +812,13 @@
         <v>1.100000023841858</v>
       </c>
       <c r="C23" t="n">
-        <v>1.080000042915344</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1.100000023841858</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>1.049999952316284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -787,13 +829,13 @@
         <v>1.080000042915344</v>
       </c>
       <c r="C24" t="n">
-        <v>1.100000023841858</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>1.049999952316284</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1.019999980926514</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -804,13 +846,13 @@
         <v>1.100000023841858</v>
       </c>
       <c r="C25" t="n">
-        <v>1.049999952316284</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.019999980926514</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9300000071525574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -821,12 +863,14 @@
         <v>1.049999952316284</v>
       </c>
       <c r="C26" t="n">
-        <v>1.019999980926514</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9300000071525574</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -836,10 +880,14 @@
         <v>1.019999980926514</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9300000071525574</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -848,9 +896,15 @@
       <c r="B28" t="n">
         <v>0.9300000071525574</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -898,13 +952,13 @@
         <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.118009209632874</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.08854603767395</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.122645854949951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -912,13 +966,13 @@
         <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.130596160888672</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.124616742134094</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.186512589454651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -926,13 +980,13 @@
         <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.127407789230347</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.139602065086365</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.182896018028259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -940,13 +994,13 @@
         <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.110214233398438</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.119963526725769</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.183227300643921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -954,13 +1008,13 @@
         <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>1.110214233398438</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.119963526725769</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.185673594474792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -968,13 +1022,13 @@
         <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.115875005722046</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.1208575963974</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.188791275024414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +1036,13 @@
         <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.115875005722046</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.121185660362244</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.186661005020142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -996,13 +1050,13 @@
         <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.115303039550781</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.121185660362244</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.186661005020142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1010,13 +1064,13 @@
         <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.115303039550781</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.1208575963974</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.188703536987305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1024,13 +1078,13 @@
         <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.113066911697388</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.123345732688904</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.091748118400574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1038,13 +1092,13 @@
         <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.104127883911133</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.118629813194275</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.07162606716156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1052,13 +1106,13 @@
         <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.103780031204224</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.115753054618835</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.072025537490845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1066,13 +1120,13 @@
         <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.118717432022095</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.106619715690613</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.115355610847473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1080,13 +1134,13 @@
         <v>45593</v>
       </c>
       <c r="B15" t="n">
-        <v>1.11701512336731</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>1.103658318519592</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1.106140851974487</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="16">
@@ -1094,13 +1148,13 @@
         <v>45600</v>
       </c>
       <c r="B16" t="n">
-        <v>1.117251873016357</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.090304851531982</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>1.105539321899414</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="17">
@@ -1108,13 +1162,13 @@
         <v>45607</v>
       </c>
       <c r="B17" t="n">
-        <v>1.110800266265869</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.085518598556519</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.109883785247803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1122,13 +1176,13 @@
         <v>45614</v>
       </c>
       <c r="B18" t="n">
-        <v>1.120527505874634</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.100306272506714</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.110405802726746</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="19">
@@ -1136,13 +1190,13 @@
         <v>45621</v>
       </c>
       <c r="B19" t="n">
-        <v>1.120741844177246</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.100306272506714</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.110405802726746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1150,13 +1204,13 @@
         <v>45628</v>
       </c>
       <c r="B20" t="n">
-        <v>1.119401931762695</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.10650372505188</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.088807225227356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1164,13 +1218,13 @@
         <v>45635</v>
       </c>
       <c r="B21" t="n">
-        <v>1.118757247924805</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.110587477684021</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.047306180000305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1178,13 +1232,13 @@
         <v>45642</v>
       </c>
       <c r="B22" t="n">
-        <v>1.129971981048584</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.148481845855713</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.064865112304688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1192,13 +1246,13 @@
         <v>45649</v>
       </c>
       <c r="B23" t="n">
-        <v>1.110188484191895</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.105829954147339</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.12029492855072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1206,13 +1260,13 @@
         <v>45663</v>
       </c>
       <c r="B24" t="n">
-        <v>1.088965654373169</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.039615392684937</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.122203707695007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1220,13 +1274,13 @@
         <v>45670</v>
       </c>
       <c r="B25" t="n">
-        <v>1.109328746795654</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.117823719978333</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.060938119888306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1234,13 +1288,13 @@
         <v>45677</v>
       </c>
       <c r="B26" t="n">
-        <v>1.08125114440918</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.087821960449219</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1.068745970726013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1248,13 +1302,13 @@
         <v>45684</v>
       </c>
       <c r="B27" t="n">
-        <v>1.087246656417847</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.050657153129578</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1.058998465538025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1262,13 +1316,13 @@
         <v>45691</v>
       </c>
       <c r="B28" t="n">
-        <v>1.058662295341492</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.085346817970276</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.044188141822815</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
